--- a/excel/table0.xlsx
+++ b/excel/table0.xlsx
@@ -421,21 +421,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
     <col customWidth="1" max="2" min="2" width="76"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="5"/>
-    <col customWidth="1" max="5" min="5" width="16"/>
-    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="19"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
     <col customWidth="1" max="7" min="7" width="8"/>
-    <col customWidth="1" max="8" min="8" width="11"/>
-    <col customWidth="1" max="9" min="9" width="12"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>` Артикул</t>
+          <t>Артикул</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -445,22 +445,26 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ba</t>
+          <t>Ед.
+изм..</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>че</t>
+          <t>Коли-
+чество</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Цена foes НАС</t>
+          <t>Цена без HAC
+РУБ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Сумма, Ses HAC</t>
+          <t>Сумма без НДС
+РУБ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -470,12 +474,14 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Сума HAC</t>
+          <t>Сумма HAC
+РУБ</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Chee! ндс</t>
+          <t>Сумма с HAC
+РУБ</t>
         </is>
       </c>
     </row>
@@ -534,7 +540,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Конфеты шоколадные Яшкино Крокант, 500г HK555.</t>
+          <t>Конфеты шоколадные Яшкино Крокант, 500г HK555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -581,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Конфеты желейные Золотая стрекоза, 500г (ВК281)</t>
+          <t>Конфеты желейные Золотая стрекоза, 500г (BK281)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +607,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>506,12.</t>
+          <t>506,12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -722,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Конфеты шоколадные глазированные Джаззи, 500г (НК557)</t>
+          <t>Конфеты шоколадные глазированные Джаззи, 500г (HK557)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -769,7 +775,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Конфеты шоколадные Фэнси, 500r (ВК288)</t>
+          <t>Конфеты шоколадные Фэнси, 500г (BK288)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -957,7 +963,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Конфеты шоколадные Ярче! Арахис, 500г (НК556)</t>
+          <t>Конфеты шоколадные Ярче! Арахис, 500г (HK556)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1051,7 +1057,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Сахар порционный в стиках Деловой стандарт 5 rp (500 штиуп.)</t>
+          <t>Сахар порционный в стиках Деловой стандарт 5 гр (500 шт/уп.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1093,12 +1099,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>418718</t>
+          <t>'418718</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Чай Greenfield Spring Melody черный фсльгир.100 пак 1065-09</t>
+          <t>Чай Greenfield Spring Melody черный фельгир.100 пак 1065-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1192,7 +1198,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Чай Greenfield Currant and Mint черный фольгир. 25пак/уп 1249-10</t>
+          <t>Чай Greenfield Currant апа Mint черный фольгир. 25пак/уп 1249-10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1286,7 +1292,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Чай Greenfield Flying Dragon зеленый фольгир.100пак/уп 0585-09</t>
+          <t>Чай Greenfield Flying Dragon зеленый фольгир.10Опак/уп 0585-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
